--- a/templates/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\2EXT03_Metabolites\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C228C44-F160-4B33-A548-68509DBE24F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FD69E3-B100-40F5-BDC9-C99A6A66C7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
@@ -43,11 +43,11 @@
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FFB6A9D9-6327-46CB-8451-A82E3FA89093}">
       <text>
-        <t>[Kommentarthread]
-Ihre Version von Excel gestattet Ihnen das Lesen dieses Kommentarthreads. Jegliche Bearbeitungen daran werden jedoch entfernt, wenn die Datei in einer neueren Version von Excel geöffnet wird. Weitere Informationen: https://go.microsoft.com/fwlink/?linkid=870924.
-Kommentar:
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
     The unique identifier of this template. It will be auto generated.
-Antwort:
+Reply:
     id=66b8fd18-dc96-4b67-8708-7697afbff11f</t>
       </text>
     </comment>
@@ -370,7 +370,7 @@
     <t>http://purl.obolibrary.org/obo/UO_0000101</t>
   </si>
   <si>
-    <t>1.1.7</t>
+    <t>1.1.8</t>
   </si>
 </sst>
 </file>
@@ -577,8 +577,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 3" xfId="1" xr:uid="{0A4EB009-60C3-4315-A066-6A57075BD287}"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="11">
     <dxf>
@@ -968,7 +968,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
@@ -1263,7 +1263,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.140625" customWidth="1"/>
@@ -1473,7 +1473,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="34.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>

--- a/templates/2EXT03_Metabolites.xlsx
+++ b/templates/2EXT03_Metabolites.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Repos\omaus\SWATE_templates\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kevin\source\repos\SWATE_templates\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4FD69E3-B100-40F5-BDC9-C99A6A66C7AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D1E5CD-B442-48F9-8FA7-5260364B5A82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2730" yWindow="2730" windowWidth="19110" windowHeight="12450" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2EXT03_Metabolites" sheetId="1" r:id="rId1"/>
@@ -39,6 +39,14 @@
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={FFB6A9D9-6327-46CB-8451-A82E3FA89093}</author>
+    <author>tc={8426B3A7-E40D-4750-912F-EBF8F08B21BD}</author>
+    <author>tc={DC2F214F-76C7-4C23-8D9C-B3BE3B3D71D6}</author>
+    <author>tc={2EF14567-FF7E-4D22-B676-7925DE580B3E}</author>
+    <author>tc={498425FC-BCB7-403C-ACC9-98128B027B45}</author>
+    <author>tc={5C5365A1-59F1-4061-9423-A086112DAB70}</author>
+    <author>tc={A6A071FB-8124-48EF-9402-AC3E23A0DF76}</author>
+    <author>tc={410CDBCE-9FF9-42BA-A57B-522B8DC1818E}</author>
+    <author>tc={0D05386B-A236-4828-86FE-D4BE3F8A30DE}</author>
   </authors>
   <commentList>
     <comment ref="A1" authorId="0" shapeId="0" xr:uid="{FFB6A9D9-6327-46CB-8451-A82E3FA89093}">
@@ -51,6 +59,70 @@
     id=66b8fd18-dc96-4b67-8708-7697afbff11f</t>
       </text>
     </comment>
+    <comment ref="A2" authorId="1" shapeId="0" xr:uid="{8426B3A7-E40D-4750-912F-EBF8F08B21BD}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate template.</t>
+      </text>
+    </comment>
+    <comment ref="A3" authorId="2" shapeId="0" xr:uid="{DC2F214F-76C7-4C23-8D9C-B3BE3B3D71D6}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The current version of this template in SemVer notation.</t>
+      </text>
+    </comment>
+    <comment ref="A4" authorId="3" shapeId="0" xr:uid="{2EF14567-FF7E-4D22-B676-7925DE580B3E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The description of this template. Use few sentences for succinctness.</t>
+      </text>
+    </comment>
+    <comment ref="A5" authorId="4" shapeId="0" xr:uid="{498425FC-BCB7-403C-ACC9-98128B027B45}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</t>
+      </text>
+    </comment>
+    <comment ref="A6" authorId="5" shapeId="0" xr:uid="{5C5365A1-59F1-4061-9423-A086112DAB70}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The name of the Swate annotation table in the workbook of the template's excel file.</t>
+      </text>
+    </comment>
+    <comment ref="A7" authorId="6" shapeId="0" xr:uid="{A6A071FB-8124-48EF-9402-AC3E23A0DF76}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A11" authorId="7" shapeId="0" xr:uid="{410CDBCE-9FF9-42BA-A57B-522B8DC1818E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</t>
+      </text>
+    </comment>
+    <comment ref="A15" authorId="8" shapeId="0" xr:uid="{0D05386B-A236-4828-86FE-D4BE3F8A30DE}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    The author(s) of this template.</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -124,9 +196,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Docslink</t>
-  </si>
-  <si>
     <t>Organisation</t>
   </si>
   <si>
@@ -184,18 +253,6 @@
     <t>Authors Affiliation</t>
   </si>
   <si>
-    <t>#AUTHORS ROLES list</t>
-  </si>
-  <si>
-    <t>Authors Roles</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Accession Number</t>
-  </si>
-  <si>
-    <t>Authors Roles Term Source REF</t>
-  </si>
-  <si>
     <t>66b8fd18-dc96-4b67-8708-7697afbff11f</t>
   </si>
   <si>
@@ -371,6 +428,21 @@
   </si>
   <si>
     <t>1.1.8</t>
+  </si>
+  <si>
+    <t>DataPLANT</t>
+  </si>
+  <si>
+    <t>Authors ORCID</t>
+  </si>
+  <si>
+    <t>Authors Role</t>
+  </si>
+  <si>
+    <t>Authors Role Term Accession Number</t>
+  </si>
+  <si>
+    <t>Authors Role Term Source REF</t>
   </si>
 </sst>
 </file>
@@ -381,7 +453,7 @@
     <numFmt numFmtId="164" formatCode="0.00\ &quot;microgram&quot;"/>
     <numFmt numFmtId="165" formatCode="0.00\ &quot;microliter&quot;"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -403,6 +475,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="6">
@@ -630,6 +708,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Oliver Maus" id="{5AE5C1F1-800E-4B42-8E80-D145103132F9}" userId="Oliver Maus" providerId="None"/>
+  <person displayName="Kevin F" id="{5893B403-7C68-4F6A-9232-74A7E138C555}" userId="b000b0ea35d13fa4" providerId="Windows Live"/>
 </personList>
 </file>
 
@@ -928,6 +1007,30 @@
   <threadedComment ref="A1" dT="2021-11-03T16:49:13.36" personId="{5AE5C1F1-800E-4B42-8E80-D145103132F9}" id="{A5AD5189-3E55-4C1E-A356-FC9291F7B114}" parentId="{FFB6A9D9-6327-46CB-8451-A82E3FA89093}">
     <text>id=66b8fd18-dc96-4b67-8708-7697afbff11f</text>
   </threadedComment>
+  <threadedComment ref="A2" dT="2022-03-04T14:02:18.75" personId="{5893B403-7C68-4F6A-9232-74A7E138C555}" id="{8426B3A7-E40D-4750-912F-EBF8F08B21BD}">
+    <text>The name of the Swate template.</text>
+  </threadedComment>
+  <threadedComment ref="A3" dT="2022-03-04T14:02:18.76" personId="{5893B403-7C68-4F6A-9232-74A7E138C555}" id="{DC2F214F-76C7-4C23-8D9C-B3BE3B3D71D6}">
+    <text>The current version of this template in SemVer notation.</text>
+  </threadedComment>
+  <threadedComment ref="A4" dT="2022-03-04T14:02:18.76" personId="{5893B403-7C68-4F6A-9232-74A7E138C555}" id="{2EF14567-FF7E-4D22-B676-7925DE580B3E}">
+    <text>The description of this template. Use few sentences for succinctness.</text>
+  </threadedComment>
+  <threadedComment ref="A5" dT="2022-03-04T14:02:18.76" personId="{5893B403-7C68-4F6A-9232-74A7E138C555}" id="{498425FC-BCB7-403C-ACC9-98128B027B45}">
+    <text>The name of the template associated organisation. "DataPLANT" will trigger the "DataPLANT" batch of honor for the template.</text>
+  </threadedComment>
+  <threadedComment ref="A6" dT="2022-03-04T14:02:18.76" personId="{5893B403-7C68-4F6A-9232-74A7E138C555}" id="{5C5365A1-59F1-4061-9423-A086112DAB70}">
+    <text>The name of the Swate annotation table in the workbook of the template's excel file.</text>
+  </threadedComment>
+  <threadedComment ref="A7" dT="2022-03-04T14:02:18.76" personId="{5893B403-7C68-4F6A-9232-74A7E138C555}" id="{A6A071FB-8124-48EF-9402-AC3E23A0DF76}">
+    <text>A list of all ERs (endpoint repositories) targeted with this template. ERs are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A11" dT="2022-03-04T14:02:18.77" personId="{5893B403-7C68-4F6A-9232-74A7E138C555}" id="{410CDBCE-9FF9-42BA-A57B-522B8DC1818E}">
+    <text>A list of all tags associated with this template. Tags are realized as Terms: &lt;term ref here&gt;</text>
+  </threadedComment>
+  <threadedComment ref="A15" dT="2022-03-04T14:02:18.77" personId="{5893B403-7C68-4F6A-9232-74A7E138C555}" id="{0D05386B-A236-4828-86FE-D4BE3F8A30DE}">
+    <text>The author(s) of this template.</text>
+  </threadedComment>
 </ThreadedComments>
 </file>
 
@@ -966,7 +1069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1047,44 +1150,44 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F2" s="1"/>
       <c r="G2" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M2" s="2">
         <v>250</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
@@ -1092,44 +1195,44 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" t="s">
         <v>88</v>
       </c>
-      <c r="D3" t="s">
-        <v>93</v>
-      </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F3" s="1"/>
       <c r="G3" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K3" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>101</v>
       </c>
       <c r="M3" s="2">
         <v>1000</v>
       </c>
       <c r="N3" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P3" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -1137,42 +1240,42 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E4" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F4" s="1"/>
       <c r="G4" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L4" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O4" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P4" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -1180,73 +1283,73 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D5" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F5" s="1"/>
       <c r="G5" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L5" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O5" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P5" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="L6" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="O6" s="2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="P6" s="2" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1259,9 +1362,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{60AC0D4D-AF39-4214-9D6D-E617BEC2CBA4}">
-  <dimension ref="A1:C28"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1275,7 +1380,7 @@
         <v>18</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -1283,7 +1388,7 @@
         <v>19</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1291,7 +1396,7 @@
         <v>20</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="50.1" customHeight="1" x14ac:dyDescent="0.25">
@@ -1299,42 +1404,44 @@
         <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B5" s="8"/>
+      <c r="B5" s="8" t="s">
+        <v>100</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="8"/>
+      <c r="B6" s="8" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>49</v>
-      </c>
+      <c r="B7" s="9"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="9"/>
+      <c r="B8" s="10" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>50</v>
-      </c>
+      <c r="B9" s="8"/>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
@@ -1343,27 +1450,28 @@
       <c r="B10" s="8"/>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="B11" s="8"/>
+      <c r="B11" s="9"/>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B12" s="9"/>
+      <c r="B12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>51</v>
-      </c>
+      <c r="B13" s="8"/>
+      <c r="C13" s="8"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
@@ -1373,33 +1481,32 @@
       <c r="C14" s="8"/>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
+      <c r="B15" s="9"/>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B16" s="9"/>
+      <c r="B16" s="10" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>52</v>
+      <c r="B17" s="8" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="8" t="s">
-        <v>53</v>
-      </c>
+      <c r="B18" s="8"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
@@ -1433,33 +1540,27 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>41</v>
+        <v>101</v>
       </c>
       <c r="B24" s="8"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="B25" s="9"/>
+      <c r="A25" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="8"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B26" s="10"/>
+        <v>103</v>
+      </c>
+      <c r="B26" s="8"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B27" s="8"/>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="B28" s="11"/>
+      <c r="A27" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -1491,40 +1592,40 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>60</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>61</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>62</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -1532,19 +1633,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C2" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -1552,7 +1653,7 @@
       <c r="J2" s="14"/>
       <c r="K2" s="14"/>
       <c r="L2" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -1560,35 +1661,35 @@
         <v>1</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C3" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G3" s="14" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H3" s="14" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I3" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J3" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K3" s="14"/>
       <c r="L3" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
@@ -1596,19 +1697,19 @@
         <v>2</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="D4" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F4" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
@@ -1616,7 +1717,7 @@
       <c r="J4" s="14"/>
       <c r="K4" s="14"/>
       <c r="L4" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
@@ -1624,37 +1725,37 @@
         <v>4</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C5" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G5" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="H5" s="14" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I5" s="14" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K5" s="14" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="L5" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -1662,37 +1763,37 @@
         <v>7</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6" s="14" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G6" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H6" s="14" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I6" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J6" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K6" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L6" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
@@ -1700,37 +1801,37 @@
         <v>11</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C7" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="14" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>72</v>
-      </c>
       <c r="E7" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
@@ -1738,37 +1839,37 @@
         <v>14</v>
       </c>
       <c r="B8" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="14" t="s">
+        <v>76</v>
+      </c>
+      <c r="H8" s="14" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>86</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>78</v>
-      </c>
       <c r="K8" s="14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L8" s="14" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>
